--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_38.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_24_38.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3643446.040382357</v>
+        <v>3645206.570685142</v>
       </c>
     </row>
     <row r="7">
@@ -667,7 +667,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>251.6862195725119</v>
+        <v>251.686219572511</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -740,7 +740,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883145</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>59.50286836346312</v>
+        <v>59.50286836346269</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>267.6112621695024</v>
+        <v>267.6112621695015</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -1122,7 +1122,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>72.0880274467727</v>
+        <v>72.08802744677259</v>
       </c>
     </row>
     <row r="8">
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>313.4495631349284</v>
+        <v>313.4495631349257</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1296,7 +1296,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>102.2868107149818</v>
+        <v>102.2868107149813</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -1311,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634789</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444124</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.022230457616</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1539,7 +1539,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>40.15381658332824</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
-        <v>75.75905456204164</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1609,7 +1609,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710066</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634785</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2016,7 +2016,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>94.30373791808189</v>
+        <v>94.30373791808194</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2098,7 +2098,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2177,7 +2177,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H21" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2329,7 +2329,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417092</v>
       </c>
       <c r="G23" t="n">
         <v>409.8033385187866</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2414,7 +2414,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H24" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2651,7 +2651,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H27" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,10 +2842,10 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576144</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2888,7 +2888,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H30" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -4306,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1405.526882613611</v>
+        <v>1405.52688261361</v>
       </c>
       <c r="C2" t="n">
-        <v>1036.5643656732</v>
+        <v>1036.564365673199</v>
       </c>
       <c r="D2" t="n">
-        <v>678.2986670664493</v>
+        <v>678.2986670664484</v>
       </c>
       <c r="E2" t="n">
         <v>424.0701624477504</v>
@@ -4327,19 +4327,19 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4348,10 +4348,10 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3325.605821609171</v>
       </c>
       <c r="T2" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U2" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V2" t="n">
-        <v>2535.034709923659</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W2" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X2" t="n">
-        <v>2182.266054653545</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y2" t="n">
-        <v>1792.126722677733</v>
+        <v>1792.126722677732</v>
       </c>
     </row>
     <row r="3">
@@ -4385,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C3" t="n">
         <v>767.0908251999817</v>
@@ -4406,16 +4406,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4427,31 +4427,31 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y3" t="n">
         <v>1109.759191501176</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>739.2385409879453</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="C4" t="n">
-        <v>739.2385409879453</v>
+        <v>739.2385409879448</v>
       </c>
       <c r="D4" t="n">
-        <v>589.1219015756095</v>
+        <v>589.1219015756091</v>
       </c>
       <c r="E4" t="n">
-        <v>441.2088079932164</v>
+        <v>441.2088079932159</v>
       </c>
       <c r="F4" t="n">
-        <v>294.318860495306</v>
+        <v>294.3188604953056</v>
       </c>
       <c r="G4" t="n">
-        <v>126.616023870025</v>
+        <v>126.6160238700245</v>
       </c>
       <c r="H4" t="n">
-        <v>126.616023870025</v>
+        <v>126.6160238700245</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962284</v>
       </c>
       <c r="K4" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L4" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596504</v>
       </c>
       <c r="M4" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588481</v>
       </c>
       <c r="N4" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886956</v>
       </c>
       <c r="O4" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P4" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="T4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="U4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="V4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="W4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="X4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="Y4" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
     </row>
     <row r="5">
@@ -4555,7 +4555,7 @@
         <v>530.5269660969217</v>
       </c>
       <c r="F5" t="n">
-        <v>119.5410613073142</v>
+        <v>119.5410613073141</v>
       </c>
       <c r="G5" t="n">
         <v>108.5090151927147</v>
@@ -4564,31 +4564,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
         <v>3325.605821609171</v>
@@ -4597,13 +4597,13 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V5" t="n">
-        <v>2678.274518176918</v>
+        <v>2678.274518176917</v>
       </c>
       <c r="W5" t="n">
         <v>2407.960111945097</v>
@@ -4637,13 +4637,13 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.189385922801</v>
@@ -4652,16 +4652,16 @@
         <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4716,16 +4716,16 @@
         <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962287</v>
       </c>
       <c r="K7" t="n">
         <v>176.6457242372933</v>
@@ -4734,40 +4734,40 @@
         <v>332.3555681596505</v>
       </c>
       <c r="M7" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N7" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O7" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P7" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="W7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="X7" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="Y7" t="n">
         <v>848.0708164780106</v>
@@ -4801,49 +4801,49 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U8" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="V8" t="n">
-        <v>2678.274518176918</v>
+        <v>2678.274518176915</v>
       </c>
       <c r="W8" t="n">
-        <v>2325.505862906803</v>
+        <v>2325.505862906801</v>
       </c>
       <c r="X8" t="n">
         <v>2008.890142568492</v>
@@ -4877,19 +4877,19 @@
         <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4901,7 +4901,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
@@ -4938,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="C10" t="n">
-        <v>560.2649387171045</v>
+        <v>560.2649387171041</v>
       </c>
       <c r="D10" t="n">
         <v>456.9449278938906</v>
@@ -4950,64 +4950,64 @@
         <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.3348699696228</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372931</v>
       </c>
       <c r="L10" t="n">
-        <v>332.3555681596505</v>
+        <v>332.3555681596503</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.788049458848</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886955</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068853</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596438</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181845</v>
       </c>
       <c r="S10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="T10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="U10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="V10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="W10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="X10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
       <c r="Y10" t="n">
-        <v>729.2011216450114</v>
+        <v>729.201121645011</v>
       </c>
     </row>
     <row r="11">
@@ -5017,52 +5017,52 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168593</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362673</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797184</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111708</v>
       </c>
       <c r="K11" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694705</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852253</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398592</v>
@@ -5108,31 +5108,31 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G12" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
         <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
         <v>2553.061288060775</v>
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>874.868625753638</v>
+        <v>768.5380889459582</v>
       </c>
       <c r="C13" t="n">
-        <v>705.9324428257311</v>
+        <v>599.6019060180513</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133953</v>
+        <v>449.4852666057155</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310022</v>
+        <v>301.5721730233224</v>
       </c>
       <c r="F13" t="n">
         <v>261.0127623330919</v>
@@ -5199,13 +5199,13 @@
         <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
         <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5226,25 +5226,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2303.393082295247</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2083.791617318188</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1794.716390662386</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="W13" t="n">
-        <v>1505.299220625425</v>
+        <v>1398.968683817745</v>
       </c>
       <c r="X13" t="n">
-        <v>1277.309669727408</v>
+        <v>1170.979132919728</v>
       </c>
       <c r="Y13" t="n">
-        <v>1056.517090583878</v>
+        <v>950.1865537761979</v>
       </c>
     </row>
     <row r="14">
@@ -5254,7 +5254,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
         <v>1948.813509611463</v>
@@ -5272,25 +5272,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5305,25 +5305,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5351,10 +5351,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
         <v>245.2306927803937</v>
@@ -5366,10 +5366,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5415,34 +5415,34 @@
         <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5506,61 +5506,61 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="18">
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N18" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5664,22 +5664,22 @@
         <v>189.0729639753273</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192588</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="21">
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N21" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5898,25 +5898,25 @@
         <v>240.7066105458822</v>
       </c>
       <c r="F22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F23" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="24">
@@ -6062,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6123,37 +6123,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F25" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6217,37 +6217,37 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192592</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075822</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6302,7 +6302,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
@@ -6314,10 +6314,10 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O27" t="n">
         <v>2516.421633107662</v>
@@ -6387,10 +6387,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
@@ -6454,43 +6454,43 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852253</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6536,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="M30" t="n">
-        <v>692.9625378792909</v>
+        <v>692.9625378792906</v>
       </c>
       <c r="N30" t="n">
-        <v>1320.560501433898</v>
+        <v>1320.560501433897</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6597,37 +6597,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>874.8686257536381</v>
+        <v>874.868625753638</v>
       </c>
       <c r="C31" t="n">
-        <v>705.9324428257312</v>
+        <v>705.9324428257311</v>
       </c>
       <c r="D31" t="n">
-        <v>555.8158034133954</v>
+        <v>555.8158034133953</v>
       </c>
       <c r="E31" t="n">
-        <v>407.9027098310023</v>
+        <v>407.9027098310022</v>
       </c>
       <c r="F31" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6706,13 +6706,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -7399,7 +7399,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362687</v>
@@ -7636,7 +7636,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362687</v>
@@ -23427,7 +23427,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>105.267231439603</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23436,7 +23436,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23466,7 +23466,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>105.267231439603</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23904,13 +23904,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>71.22040037418695</v>
+        <v>71.22040037418691</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,7 +24885,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710685</v>
       </c>
       <c r="C2" t="n">
-        <v>779989.6813710689</v>
+        <v>779989.6813710688</v>
       </c>
       <c r="D2" t="n">
         <v>779989.6813710687</v>
       </c>
       <c r="E2" t="n">
-        <v>766789.2697055056</v>
+        <v>766789.2697055058</v>
       </c>
       <c r="F2" t="n">
+        <v>766789.2697055062</v>
+      </c>
+      <c r="G2" t="n">
+        <v>766789.2697055057</v>
+      </c>
+      <c r="H2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="I2" t="n">
+        <v>766789.269705506</v>
+      </c>
+      <c r="J2" t="n">
         <v>766789.2697055059</v>
       </c>
-      <c r="G2" t="n">
-        <v>766789.2697055056</v>
-      </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
         <v>766789.2697055057</v>
-      </c>
-      <c r="I2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="J2" t="n">
-        <v>766789.2697055058</v>
-      </c>
-      <c r="K2" t="n">
-        <v>766789.2697055058</v>
       </c>
       <c r="L2" t="n">
         <v>766789.2697055058</v>
@@ -26365,19 +26365,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>7.880856267955348e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972776</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,10 +26398,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551167</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
-        <v>1.11379904410569e-10</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26417,34 +26417,34 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405259</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405254</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405265</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687971</v>
       </c>
       <c r="G4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687976</v>
       </c>
       <c r="H4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687977</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687977</v>
       </c>
       <c r="J4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687974</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-750285.7490219695</v>
+        <v>-750285.7490219697</v>
       </c>
       <c r="C6" t="n">
+        <v>578458.9967056228</v>
+      </c>
+      <c r="D6" t="n">
         <v>578458.9967056231</v>
       </c>
-      <c r="D6" t="n">
-        <v>578458.9967056229</v>
-      </c>
       <c r="E6" t="n">
-        <v>324470.2588130067</v>
+        <v>324782.9001419281</v>
       </c>
       <c r="F6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.3619492837</v>
       </c>
       <c r="G6" t="n">
-        <v>649882.7206203619</v>
+        <v>650195.3619492832</v>
       </c>
       <c r="H6" t="n">
-        <v>649882.720620362</v>
+        <v>650195.3619492835</v>
       </c>
       <c r="I6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.3619492835</v>
       </c>
       <c r="J6" t="n">
-        <v>432351.5182230845</v>
+        <v>432664.1595520059</v>
       </c>
       <c r="K6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="L6" t="n">
-        <v>649882.7206203621</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="M6" t="n">
-        <v>564827.6926848502</v>
+        <v>565140.3340137713</v>
       </c>
       <c r="N6" t="n">
-        <v>649882.720620362</v>
+        <v>650195.3619492834</v>
       </c>
       <c r="O6" t="n">
-        <v>649882.7206203619</v>
+        <v>650195.3619492832</v>
       </c>
       <c r="P6" t="n">
-        <v>649882.720620362</v>
+        <v>650195.3619492833</v>
       </c>
     </row>
   </sheetData>
@@ -26694,7 +26694,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26962,7 +26962,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,10 +27020,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,10 +27044,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,10 +27266,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697355</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27387,7 +27387,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>130.2441504997498</v>
+        <v>130.2441504997508</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27460,7 +27460,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>1.27897692436818e-12</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27557,7 +27557,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>36.84955204637497</v>
+        <v>36.84955204637543</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27678,7 +27678,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>81.62970654791064</v>
+        <v>81.6297065479115</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -27842,7 +27842,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>146.4966259053221</v>
+        <v>146.4966259053222</v>
       </c>
     </row>
     <row r="8">
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>56.28153754354059</v>
+        <v>56.28153754354332</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28016,7 +28016,7 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>46.32866230323059</v>
+        <v>46.32866230323103</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28089,7 +28089,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1.672078567559044e-12</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28107,7 +28107,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>1.321609488513786e-12</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28143,7 +28143,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -28563,7 +28563,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28818,7 +28818,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -29049,7 +29049,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>1.676880856393836e-12</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -31041,43 +31041,43 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
@@ -31126,40 +31126,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,13 +31199,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
@@ -31214,16 +31214,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
         <v>237.6785118802169</v>
@@ -31232,16 +31232,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,22 +31840,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32077,22 +32077,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32314,22 +32314,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32463,37 +32463,37 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R20" t="n">
         <v>345.4516222043725</v>
@@ -32502,10 +32502,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32551,22 +32551,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K21" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O21" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32578,10 +32578,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T21" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U21" t="n">
         <v>0.1935814387275954</v>
@@ -32627,28 +32627,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J22" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N22" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P22" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q22" t="n">
         <v>206.5643005515927</v>
@@ -32657,7 +32657,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
@@ -32700,37 +32700,37 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R23" t="n">
         <v>345.4516222043725</v>
@@ -32739,10 +32739,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32788,22 +32788,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32815,10 +32815,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T24" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U24" t="n">
         <v>0.1935814387275954</v>
@@ -32864,28 +32864,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J25" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N25" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q25" t="n">
         <v>206.5643005515927</v>
@@ -32894,7 +32894,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
@@ -32937,37 +32937,37 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H26" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J26" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817591</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R26" t="n">
         <v>345.4516222043725</v>
@@ -32976,10 +32976,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U26" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33025,22 +33025,22 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K27" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O27" t="n">
-        <v>361.7519118779092</v>
+        <v>361.7519118779101</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,13 +33049,13 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T27" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U27" t="n">
         <v>0.1935814387275954</v>
@@ -33101,28 +33101,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J28" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N28" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P28" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q28" t="n">
         <v>206.5643005515927</v>
@@ -33131,7 +33131,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
@@ -33174,37 +33174,37 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H29" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R29" t="n">
         <v>345.4516222043725</v>
@@ -33213,10 +33213,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U29" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33271,28 +33271,28 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O30" t="n">
-        <v>687.0167715190038</v>
+        <v>687.0167715190042</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q30" t="n">
         <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T30" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U30" t="n">
         <v>0.1935814387275954</v>
@@ -33338,28 +33338,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J31" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N31" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P31" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q31" t="n">
         <v>206.5643005515927</v>
@@ -33368,7 +33368,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K4" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L4" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M4" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N4" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O4" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P4" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q4" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>11.94217529034289</v>
+        <v>11.94217529034286</v>
       </c>
       <c r="K10" t="n">
-        <v>99.30389319966704</v>
+        <v>99.30389319966699</v>
       </c>
       <c r="L10" t="n">
-        <v>157.2826706286437</v>
+        <v>157.2826706286436</v>
       </c>
       <c r="M10" t="n">
-        <v>169.1237184840382</v>
+        <v>169.1237184840381</v>
       </c>
       <c r="N10" t="n">
-        <v>173.0392293230783</v>
+        <v>173.0392293230782</v>
       </c>
       <c r="O10" t="n">
         <v>139.3114638567573</v>
       </c>
       <c r="P10" t="n">
-        <v>99.95050783106933</v>
+        <v>99.95050783106927</v>
       </c>
       <c r="Q10" t="n">
-        <v>13.0512801601422</v>
+        <v>13.05128016014217</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36117,31 +36117,31 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396418</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N20" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P20" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R20" t="n">
         <v>129.8660843902404</v>
@@ -36196,25 +36196,25 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O21" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K22" t="n">
         <v>264.3325884096349</v>
@@ -36287,19 +36287,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36354,31 +36354,31 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J23" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L23" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N23" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P23" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R23" t="n">
         <v>129.8660843902404</v>
@@ -36433,25 +36433,25 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K25" t="n">
         <v>264.3325884096349</v>
@@ -36524,19 +36524,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P25" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q25" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36591,31 +36591,31 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J26" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367776</v>
+        <v>479.4543240367786</v>
       </c>
       <c r="L26" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N26" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P26" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R26" t="n">
         <v>129.8660843902404</v>
@@ -36670,25 +36670,25 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O27" t="n">
-        <v>219.1556674334648</v>
+        <v>219.1556674334657</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K28" t="n">
         <v>264.3325884096349</v>
@@ -36761,19 +36761,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N28" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q28" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36828,31 +36828,31 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L29" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N29" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P29" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R29" t="n">
         <v>129.8660843902404</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -36919,22 +36919,22 @@
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O30" t="n">
-        <v>544.4205270745593</v>
+        <v>544.4205270745598</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q30" t="n">
         <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,7 +36989,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K31" t="n">
         <v>264.3325884096349</v>
@@ -36998,19 +36998,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N31" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P31" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q31" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
